--- a/Content/TableData/Staff.xlsx
+++ b/Content/TableData/Staff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F5BFCE-958A-4911-A34D-87CB7A7D497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F28DBA-C88B-4796-B170-41C52E4D121E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43140" yWindow="5580" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25830" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,17 @@
   </si>
   <si>
     <t>폴라포 오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못생긴오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathFile</t>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -451,7 +462,7 @@
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -476,8 +487,11 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -502,22 +516,25 @@
       <c r="H2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -528,22 +545,25 @@
       <c r="H3" s="1">
         <v>3001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -552,50 +572,56 @@
         <v>3000</v>
       </c>
       <c r="H4" s="1">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3001</v>
+      </c>
+      <c r="I4">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G5">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H5" s="1">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3002</v>
+      </c>
+      <c r="I5">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>1500</v>
@@ -604,50 +630,56 @@
         <v>4000</v>
       </c>
       <c r="H6" s="1">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3003</v>
+      </c>
+      <c r="I6">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G7">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H7" s="1">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3004</v>
+      </c>
+      <c r="I7">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -656,24 +688,27 @@
         <v>3000</v>
       </c>
       <c r="H8" s="1">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3005</v>
+      </c>
+      <c r="I8">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -682,50 +717,56 @@
         <v>3000</v>
       </c>
       <c r="H9" s="1">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3006</v>
+      </c>
+      <c r="I9">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G10">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H10" s="1">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3001</v>
+      </c>
+      <c r="I10">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>1500</v>
@@ -734,85 +775,126 @@
         <v>4000</v>
       </c>
       <c r="H11" s="1">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3002</v>
+      </c>
+      <c r="I11">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G12">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H12" s="1">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3003</v>
+      </c>
+      <c r="I12">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G13">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H13" s="1">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3004</v>
+      </c>
+      <c r="I13">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1500</v>
+      </c>
+      <c r="G14">
+        <v>4000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3005</v>
+      </c>
+      <c r="I14">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>12</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>1000</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>3000</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <v>3006</v>
+      </c>
+      <c r="I15">
+        <v>9001</v>
       </c>
     </row>
   </sheetData>

--- a/Content/TableData/Staff.xlsx
+++ b/Content/TableData/Staff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F28DBA-C88B-4796-B170-41C52E4D121E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4416A-C8C4-4352-993D-2E30E9BDB010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25830" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,14 @@
   </si>
   <si>
     <t>PathFile</t>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlotCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
@@ -451,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="H3" sqref="H3:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -462,7 +470,7 @@
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -485,13 +493,16 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,13 +525,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -542,14 +556,17 @@
       <c r="G3">
         <v>3000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
         <v>3001</v>
       </c>
-      <c r="I3">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -571,14 +588,17 @@
       <c r="G4">
         <v>3000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>3001</v>
       </c>
-      <c r="I4">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -600,14 +620,17 @@
       <c r="G5">
         <v>3000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>3002</v>
       </c>
-      <c r="I5">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -629,14 +652,17 @@
       <c r="G6">
         <v>4000</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>3003</v>
       </c>
-      <c r="I6">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -658,14 +684,17 @@
       <c r="G7">
         <v>4000</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>3004</v>
       </c>
-      <c r="I7">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -687,14 +716,17 @@
       <c r="G8">
         <v>3000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>3005</v>
       </c>
-      <c r="I8">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -716,14 +748,17 @@
       <c r="G9">
         <v>3000</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
         <v>3006</v>
       </c>
-      <c r="I9">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -745,14 +780,17 @@
       <c r="G10">
         <v>3000</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
         <v>3001</v>
       </c>
-      <c r="I10">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -774,14 +812,17 @@
       <c r="G11">
         <v>4000</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
         <v>3002</v>
       </c>
-      <c r="I11">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -803,14 +844,17 @@
       <c r="G12">
         <v>4000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
         <v>3003</v>
       </c>
-      <c r="I12">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -832,14 +876,17 @@
       <c r="G13">
         <v>3000</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
         <v>3004</v>
       </c>
-      <c r="I13">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -861,14 +908,17 @@
       <c r="G14">
         <v>4000</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
         <v>3005</v>
       </c>
-      <c r="I14">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -890,10 +940,13 @@
       <c r="G15">
         <v>3000</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
         <v>3006</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>9001</v>
       </c>
     </row>

--- a/Content/TableData/Staff.xlsx
+++ b/Content/TableData/Staff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4416A-C8C4-4352-993D-2E30E9BDB010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855548E3-8D5C-4470-9507-51F0F3343F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreSpawned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H15"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -470,7 +478,7 @@
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -501,8 +509,11 @@
       <c r="J1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -533,8 +544,11 @@
       <c r="J2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -565,8 +579,11 @@
       <c r="J3">
         <v>9001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -597,8 +614,11 @@
       <c r="J4">
         <v>9001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -629,8 +649,11 @@
       <c r="J5">
         <v>9001</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -661,8 +684,11 @@
       <c r="J6">
         <v>9001</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -693,8 +719,11 @@
       <c r="J7">
         <v>9001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -725,8 +754,11 @@
       <c r="J8">
         <v>9001</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -757,8 +789,11 @@
       <c r="J9">
         <v>9001</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -789,8 +824,11 @@
       <c r="J10">
         <v>9001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -821,8 +859,11 @@
       <c r="J11">
         <v>9001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -853,8 +894,11 @@
       <c r="J12">
         <v>9001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -885,8 +929,11 @@
       <c r="J13">
         <v>9001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -917,8 +964,11 @@
       <c r="J14">
         <v>9001</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -948,6 +998,9 @@
       </c>
       <c r="J15">
         <v>9001</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Content/TableData/Staff.xlsx
+++ b/Content/TableData/Staff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\capark2690\ProjectMS\Content\TableData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855548E3-8D5C-4470-9507-51F0F3343F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A404E368-10C1-4CC9-9665-8053E5B17842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19155" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,23 +118,27 @@
     <t>PathFile</t>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SlotCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PreSpawned</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,539 +467,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10010</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>3001</v>
       </c>
-      <c r="J3">
-        <v>9001</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>9001</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10009</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3001</v>
-      </c>
-      <c r="J4">
-        <v>9001</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3009</v>
+      </c>
+      <c r="K4">
+        <v>9001</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>1000</v>
-      </c>
       <c r="G5">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
         <v>3002</v>
       </c>
-      <c r="J5">
-        <v>9001</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>9001</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>10003</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15</v>
       </c>
-      <c r="F6">
-        <v>1500</v>
-      </c>
       <c r="G6">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <v>3003</v>
       </c>
-      <c r="J6">
-        <v>9001</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>9001</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>10004</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1.5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>1500</v>
-      </c>
       <c r="G7">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>3004</v>
       </c>
-      <c r="J7">
-        <v>9001</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>9001</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>10006</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1000</v>
-      </c>
       <c r="G8">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3005</v>
-      </c>
-      <c r="J8">
-        <v>9001</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3006</v>
+      </c>
+      <c r="K8">
+        <v>9001</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>10007</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>3.5</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3006</v>
-      </c>
-      <c r="J9">
-        <v>9001</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3007</v>
+      </c>
+      <c r="K9">
+        <v>9001</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>10009</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="F10">
-        <v>1000</v>
-      </c>
       <c r="G10">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3001</v>
-      </c>
-      <c r="J10">
-        <v>9001</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3009</v>
+      </c>
+      <c r="K10">
+        <v>9001</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1.5</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>1500</v>
-      </c>
       <c r="G11">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3002</v>
-      </c>
-      <c r="J11">
-        <v>9001</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3001</v>
+      </c>
+      <c r="K11">
+        <v>9001</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>10003</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1500</v>
-      </c>
       <c r="G12">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
+        <v>150</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>3003</v>
       </c>
-      <c r="J12">
-        <v>9001</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>9001</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>10004</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>1000</v>
-      </c>
       <c r="G13">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>3004</v>
       </c>
-      <c r="J13">
-        <v>9001</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>9001</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>10005</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="F14">
-        <v>1500</v>
-      </c>
       <c r="G14">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
         <v>3005</v>
       </c>
-      <c r="J14">
-        <v>9001</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>9001</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>10007</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>12</v>
       </c>
-      <c r="F15">
-        <v>1000</v>
-      </c>
       <c r="G15">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <v>3006</v>
       </c>
-      <c r="J15">
-        <v>9001</v>
-      </c>
-      <c r="K15" t="b">
+      <c r="K15">
+        <v>9001</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>10008</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>250</v>
+      </c>
+      <c r="H16">
+        <v>250</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3008</v>
+      </c>
+      <c r="K16">
+        <v>9001</v>
+      </c>
+      <c r="L16" t="b">
         <v>0</v>
       </c>
     </row>
